--- a/src/tiles/template.xlsx
+++ b/src/tiles/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Calculator\MyCEPrograms\Tanks-CE\src\tiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/080faa1dba44aacf/MyCEPrograms/Tanks-CE/src/tiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0972D96E-CA81-4469-BC08-6E6CA1818317}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{0972D96E-CA81-4469-BC08-6E6CA1818317}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{7CAA075D-30E4-4A8E-86DA-6A1FE1CF8BCD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:W18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,83 +877,77 @@
     <col min="1" max="24" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V1">
-        <v>1</v>
-      </c>
-      <c r="W1">
-        <v>1</v>
-      </c>
-      <c r="X1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1018,16 +1012,10 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1092,16 +1080,10 @@
       <c r="V3">
         <v>0</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
     </row>
-    <row r="4" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1166,16 +1148,10 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1240,16 +1216,10 @@
       <c r="V5">
         <v>0</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1314,16 +1284,10 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1388,16 +1352,10 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
     </row>
-    <row r="8" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1462,16 +1420,10 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
     </row>
-    <row r="9" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1536,16 +1488,10 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
     </row>
-    <row r="10" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1610,16 +1556,10 @@
       <c r="V10">
         <v>0</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
     </row>
-    <row r="11" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1684,16 +1624,10 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
     </row>
-    <row r="12" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1758,16 +1692,10 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>1</v>
-      </c>
     </row>
-    <row r="13" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1832,16 +1760,10 @@
       <c r="V13">
         <v>0</v>
       </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1906,16 +1828,10 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1980,16 +1896,10 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2054,16 +1964,10 @@
       <c r="V16">
         <v>0</v>
       </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>1</v>
-      </c>
     </row>
-    <row r="17" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2128,166 +2032,14 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>1</v>
-      </c>
     </row>
-    <row r="18" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>1</v>
-      </c>
-      <c r="W19">
-        <v>1</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <conditionalFormatting sqref="A21:V21 A1:X19">
+  <conditionalFormatting sqref="A21:V21 A18:X18 X1:X17 A1:V17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
